--- a/OffsetCase.xlsx
+++ b/OffsetCase.xlsx
@@ -14,12 +14,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>two</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Thur</t>
+  </si>
+  <si>
+    <t>Tues</t>
+  </si>
+  <si>
+    <t>Weds</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Midnight Snack</t>
+  </si>
+  <si>
+    <t>Toast</t>
+  </si>
+  <si>
+    <t>Soup</t>
+  </si>
+  <si>
+    <t>Curry</t>
+  </si>
+  <si>
+    <t>Shmores</t>
+  </si>
+  <si>
+    <t>Hotpot</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>Something Different!</t>
+  </si>
+  <si>
+    <t>Biscuits</t>
   </si>
 </sst>
 </file>
@@ -377,139 +422,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I5:K16"/>
+  <dimension ref="I5:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="9:11">
+    <row r="5" spans="9:14">
       <c r="J5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="L5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="9:11">
+    <row r="6" spans="9:14">
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>15</v>
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="9:11">
+    <row r="7" spans="9:14">
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>16</v>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="9:11">
+    <row r="8" spans="9:14">
       <c r="I8" s="1">
         <v>2</v>
       </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>17</v>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="9" spans="9:11">
+    <row r="9" spans="9:14">
       <c r="I9" s="1">
         <v>3</v>
       </c>
-      <c r="J9">
-        <v>6</v>
-      </c>
-      <c r="K9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="9:11">
-      <c r="I10" s="1">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>7</v>
-      </c>
-      <c r="K10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="9:11">
-      <c r="I11" s="1">
-        <v>5</v>
-      </c>
-      <c r="J11">
+      <c r="J9" t="s">
         <v>8</v>
       </c>
-      <c r="K11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="9:11">
-      <c r="I12" s="1">
-        <v>6</v>
-      </c>
-      <c r="J12">
-        <v>9</v>
-      </c>
-      <c r="K12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="9:11">
-      <c r="I13" s="1">
-        <v>7</v>
-      </c>
-      <c r="J13">
-        <v>10</v>
-      </c>
-      <c r="K13">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="9:11">
-      <c r="I14" s="1">
-        <v>8</v>
-      </c>
-      <c r="J14">
-        <v>11</v>
-      </c>
-      <c r="K14">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="9:11">
-      <c r="I15" s="1">
-        <v>9</v>
-      </c>
-      <c r="J15">
+      <c r="K9" t="s">
         <v>12</v>
       </c>
-      <c r="K15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="9:11">
-      <c r="I16" s="1">
-        <v>10</v>
-      </c>
-      <c r="J16">
-        <v>13</v>
-      </c>
-      <c r="K16">
-        <v>25</v>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/OffsetCase.xlsx
+++ b/OffsetCase.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Meal</t>
   </si>
@@ -22,15 +22,15 @@
     <t>Mon</t>
   </si>
   <si>
+    <t>Tues</t>
+  </si>
+  <si>
+    <t>Weds</t>
+  </si>
+  <si>
     <t>Thur</t>
   </si>
   <si>
-    <t>Tues</t>
-  </si>
-  <si>
-    <t>Weds</t>
-  </si>
-  <si>
     <t>Breakfast</t>
   </si>
   <si>
@@ -55,16 +55,40 @@
     <t>Shmores</t>
   </si>
   <si>
+    <t>Bagel</t>
+  </si>
+  <si>
+    <t>Something Different!</t>
+  </si>
+  <si>
+    <t>Stew</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>Cereal</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t>Biscuits</t>
+  </si>
+  <si>
+    <t>Croissant</t>
+  </si>
+  <si>
     <t>Hotpot</t>
   </si>
   <si>
+    <t>Gnocchi</t>
+  </si>
+  <si>
     <t>Chocolate</t>
-  </si>
-  <si>
-    <t>Something Different!</t>
-  </si>
-  <si>
-    <t>Biscuits</t>
   </si>
 </sst>
 </file>
@@ -422,107 +446,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I5:N9"/>
+  <dimension ref="N11:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="9:14">
-      <c r="J5" s="1" t="s">
+    <row r="11" spans="14:19">
+      <c r="O11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="9:14">
-      <c r="I6" s="1">
+    <row r="12" spans="14:19">
+      <c r="N12" s="1">
         <v>0</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O12" t="s">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
+      <c r="P12" t="s">
         <v>9</v>
       </c>
-      <c r="L6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" t="s">
-        <v>9</v>
+      <c r="Q12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="9:14">
-      <c r="I7" s="1">
+    <row r="13" spans="14:19">
+      <c r="N13" s="1">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
+      <c r="O13" t="s">
         <v>6</v>
       </c>
-      <c r="K7" t="s">
+      <c r="P13" t="s">
         <v>10</v>
       </c>
-      <c r="L7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="Q13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="14:19">
+      <c r="N14" s="1">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" t="s">
         <v>15</v>
       </c>
-      <c r="N7" t="s">
-        <v>10</v>
+      <c r="R14" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="8" spans="9:14">
-      <c r="I8" s="1">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="9:14">
-      <c r="I9" s="1">
+    <row r="15" spans="14:19">
+      <c r="N15" s="1">
         <v>3</v>
       </c>
-      <c r="J9" t="s">
+      <c r="O15" t="s">
         <v>8</v>
       </c>
-      <c r="K9" t="s">
+      <c r="P15" t="s">
         <v>12</v>
       </c>
-      <c r="L9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="Q15" t="s">
         <v>16</v>
+      </c>
+      <c r="R15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
